--- a/patient_data/patient_24.xlsx
+++ b/patient_data/patient_24.xlsx
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -723,16 +723,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -758,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -835,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>1</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -989,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1913,16 +1913,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
